--- a/biology/Médecine/Grade_histologique/Grade_histologique.xlsx
+++ b/biology/Médecine/Grade_histologique/Grade_histologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En pathologie et en cancérologie, le grade histologique est une mesure du progrès d'une tumeur.
 Le grade histopronostique tente de quantifier le degré de malignité de la tumeur. Il établit un score en fonction du degré d'anomalies nucléaires et cytoplasmiques (anomalies cytonucléaires), de la différenciation cellulaire, du nombre de mitoses. Le caractère du stroma tumoral, l'existence d'invasions vasculaires ou d'invasion périneurale, de zones de nécrose tumorale, ont également leur importance. 
@@ -513,19 +525,125 @@
           <t>Types de gradation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différents systèmes de gradation correspondent à différentes tumeurs. Néanmoins, ces grades sont avant tout des conventions.
-Pour les sarcomes
-Ce système possède 4 grades.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Grade_histologique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grade_histologique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Types de gradation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pour les sarcomes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ce système possède 4 grades.
 G1 sarcome bien différencié (bas grade)
 G2 sarcome moyennement différencié (grade intermédiaire)
 G3 sarcome peu différencié (haut grade)
-G4 sarcome indifférencié (haut grade)
-Pour les carcinomes
-Ce système possède trois grades.
-Système de gradation Gleason
-Le score de Gleason est utilisé pour le cancer de la prostate[1]. Il est appelé ainsi d'après Donald Gleason, pathologiste américain[2]. Il possède 5 grades.
+G4 sarcome indifférencié (haut grade)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Grade_histologique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grade_histologique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Types de gradation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pour les carcinomes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce système possède trois grades.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grade_histologique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grade_histologique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Types de gradation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Système de gradation Gleason</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le score de Gleason est utilisé pour le cancer de la prostate. Il est appelé ainsi d'après Donald Gleason, pathologiste américain. Il possède 5 grades.
 </t>
         </is>
       </c>
